--- a/1_Result_Tables/2_ifo_qoq_evaluations_20221_21001/ifo_qoq_forecast_error_table_first_eval_20221_21001.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations_20221_21001/ifo_qoq_forecast_error_table_first_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08696016040226752</v>
+        <v>0.02037664140334729</v>
       </c>
       <c r="C2">
-        <v>0.2244626349384274</v>
+        <v>0.4125673874451535</v>
       </c>
       <c r="D2">
-        <v>0.06217355075105529</v>
+        <v>0.4288236258248655</v>
       </c>
       <c r="E2">
-        <v>0.2493462467153963</v>
+        <v>0.6548462612131687</v>
       </c>
       <c r="F2">
-        <v>0.24189316101004</v>
+        <v>0.6609149592609375</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3031818451638543</v>
+        <v>0.4198709658825853</v>
       </c>
       <c r="C3">
-        <v>0.3412803276417196</v>
+        <v>0.6887531942785867</v>
       </c>
       <c r="D3">
-        <v>0.1783459041844743</v>
+        <v>1.402911000708223</v>
       </c>
       <c r="E3">
-        <v>0.4223101990059846</v>
+        <v>1.184445440156795</v>
       </c>
       <c r="F3">
-        <v>0.3050817571715199</v>
+        <v>1.118548952961554</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4726833070249565</v>
+        <v>0.5914175045278451</v>
       </c>
       <c r="C4">
-        <v>0.4978299971988559</v>
+        <v>1.023480694380445</v>
       </c>
       <c r="D4">
-        <v>0.4530240298790372</v>
+        <v>4.028787767966156</v>
       </c>
       <c r="E4">
-        <v>0.6730705979903128</v>
+        <v>2.007184039386064</v>
       </c>
       <c r="F4">
-        <v>0.4987257742493065</v>
+        <v>1.937548709935223</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6055399787264154</v>
+        <v>0.4886808719290308</v>
       </c>
       <c r="C5">
-        <v>0.6086332724655883</v>
+        <v>1.0759500315233</v>
       </c>
       <c r="D5">
-        <v>0.5906225627394526</v>
+        <v>4.644551171805161</v>
       </c>
       <c r="E5">
-        <v>0.7685197217635034</v>
+        <v>2.155122078167536</v>
       </c>
       <c r="F5">
-        <v>0.4942695954492832</v>
+        <v>2.120737718949353</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5882471822302764</v>
+        <v>0.4109263009013963</v>
       </c>
       <c r="C6">
-        <v>0.5882471822302764</v>
+        <v>0.9592852530966729</v>
       </c>
       <c r="D6">
-        <v>0.4329084706557275</v>
+        <v>4.304132647662862</v>
       </c>
       <c r="E6">
-        <v>0.6579578030966177</v>
+        <v>2.074640365861723</v>
       </c>
       <c r="F6">
-        <v>0.3091295773284307</v>
+        <v>2.055056383234047</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4671934630864089</v>
+        <v>0.4014302792999628</v>
       </c>
       <c r="C7">
-        <v>0.4696202125542849</v>
+        <v>1.035766140078607</v>
       </c>
       <c r="D7">
-        <v>0.2831907857527659</v>
+        <v>5.219666336070993</v>
       </c>
       <c r="E7">
-        <v>0.5321567304401644</v>
+        <v>2.284658910225111</v>
       </c>
       <c r="F7">
-        <v>0.2685786741804888</v>
+        <v>2.28101933610867</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3964777679756588</v>
+        <v>0.3912910724344761</v>
       </c>
       <c r="C8">
-        <v>0.4142371153650239</v>
+        <v>1.034972397376921</v>
       </c>
       <c r="D8">
-        <v>0.2111306574106052</v>
+        <v>5.326670609579055</v>
       </c>
       <c r="E8">
-        <v>0.4594895618081059</v>
+        <v>2.307958103947958</v>
       </c>
       <c r="F8">
-        <v>0.2463291325150163</v>
+        <v>2.307753342904947</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.430140519527954</v>
+        <v>0.2626343886760503</v>
       </c>
       <c r="C9">
-        <v>0.430140519527954</v>
+        <v>1.460263562571626</v>
       </c>
       <c r="D9">
-        <v>0.2113118878782925</v>
+        <v>9.616065425151794</v>
       </c>
       <c r="E9">
-        <v>0.4596867279771002</v>
+        <v>3.100978140063518</v>
       </c>
       <c r="F9">
-        <v>0.1776210167919809</v>
+        <v>3.179415362967537</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3316630433627284</v>
+        <v>-0.5588777053075298</v>
       </c>
       <c r="C10">
-        <v>0.3316630433627284</v>
+        <v>1.182169283809976</v>
       </c>
       <c r="D10">
-        <v>0.1188298149235608</v>
+        <v>6.428227015842427</v>
       </c>
       <c r="E10">
-        <v>0.344717007012362</v>
+        <v>2.535394844169725</v>
       </c>
       <c r="F10">
-        <v>0.1150832780485532</v>
+        <v>2.593736879289778</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.6206497229122814</v>
+        <v>0.519969595466371</v>
       </c>
       <c r="C11">
-        <v>0.6206497229122814</v>
+        <v>0.5362226368289061</v>
       </c>
       <c r="D11">
-        <v>0.3852060785510916</v>
+        <v>0.3603679742451336</v>
       </c>
       <c r="E11">
-        <v>0.6206497229122814</v>
+        <v>0.6003065668848989</v>
+      </c>
+      <c r="F11">
+        <v>0.3354094401542539</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/2_ifo_qoq_evaluations_20221_21001/ifo_qoq_forecast_error_table_first_eval_20221_21001.xlsx
+++ b/1_Result_Tables/2_ifo_qoq_evaluations_20221_21001/ifo_qoq_forecast_error_table_first_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02037664140334729</v>
+        <v>0.08696016040226752</v>
       </c>
       <c r="C2">
-        <v>0.4125673874451535</v>
+        <v>0.2244626349384274</v>
       </c>
       <c r="D2">
-        <v>0.4288236258248655</v>
+        <v>0.06217355075105529</v>
       </c>
       <c r="E2">
-        <v>0.6548462612131687</v>
+        <v>0.2493462467153963</v>
       </c>
       <c r="F2">
-        <v>0.6609149592609375</v>
+        <v>0.24189316101004</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.4198709658825853</v>
+        <v>0.3031818451638543</v>
       </c>
       <c r="C3">
-        <v>0.6887531942785867</v>
+        <v>0.3412803276417196</v>
       </c>
       <c r="D3">
-        <v>1.402911000708223</v>
+        <v>0.1783459041844743</v>
       </c>
       <c r="E3">
-        <v>1.184445440156795</v>
+        <v>0.4223101990059846</v>
       </c>
       <c r="F3">
-        <v>1.118548952961554</v>
+        <v>0.3050817571715199</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.5914175045278451</v>
+        <v>0.4726833070249565</v>
       </c>
       <c r="C4">
-        <v>1.023480694380445</v>
+        <v>0.4978299971988559</v>
       </c>
       <c r="D4">
-        <v>4.028787767966156</v>
+        <v>0.4530240298790372</v>
       </c>
       <c r="E4">
-        <v>2.007184039386064</v>
+        <v>0.6730705979903128</v>
       </c>
       <c r="F4">
-        <v>1.937548709935223</v>
+        <v>0.4987257742493065</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.4886808719290308</v>
+        <v>0.6055399787264154</v>
       </c>
       <c r="C5">
-        <v>1.0759500315233</v>
+        <v>0.6086332724655883</v>
       </c>
       <c r="D5">
-        <v>4.644551171805161</v>
+        <v>0.5906225627394526</v>
       </c>
       <c r="E5">
-        <v>2.155122078167536</v>
+        <v>0.7685197217635034</v>
       </c>
       <c r="F5">
-        <v>2.120737718949353</v>
+        <v>0.4942695954492832</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.4109263009013963</v>
+        <v>0.5882471822302764</v>
       </c>
       <c r="C6">
-        <v>0.9592852530966729</v>
+        <v>0.5882471822302764</v>
       </c>
       <c r="D6">
-        <v>4.304132647662862</v>
+        <v>0.4329084706557275</v>
       </c>
       <c r="E6">
-        <v>2.074640365861723</v>
+        <v>0.6579578030966177</v>
       </c>
       <c r="F6">
-        <v>2.055056383234047</v>
+        <v>0.3091295773284307</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4014302792999628</v>
+        <v>0.4671934630864089</v>
       </c>
       <c r="C7">
-        <v>1.035766140078607</v>
+        <v>0.4696202125542849</v>
       </c>
       <c r="D7">
-        <v>5.219666336070993</v>
+        <v>0.2831907857527659</v>
       </c>
       <c r="E7">
-        <v>2.284658910225111</v>
+        <v>0.5321567304401644</v>
       </c>
       <c r="F7">
-        <v>2.28101933610867</v>
+        <v>0.2685786741804888</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3912910724344761</v>
+        <v>0.3964777679756588</v>
       </c>
       <c r="C8">
-        <v>1.034972397376921</v>
+        <v>0.4142371153650239</v>
       </c>
       <c r="D8">
-        <v>5.326670609579055</v>
+        <v>0.2111306574106052</v>
       </c>
       <c r="E8">
-        <v>2.307958103947958</v>
+        <v>0.4594895618081059</v>
       </c>
       <c r="F8">
-        <v>2.307753342904947</v>
+        <v>0.2463291325150163</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2626343886760503</v>
+        <v>0.430140519527954</v>
       </c>
       <c r="C9">
-        <v>1.460263562571626</v>
+        <v>0.430140519527954</v>
       </c>
       <c r="D9">
-        <v>9.616065425151794</v>
+        <v>0.2113118878782925</v>
       </c>
       <c r="E9">
-        <v>3.100978140063518</v>
+        <v>0.4596867279771002</v>
       </c>
       <c r="F9">
-        <v>3.179415362967537</v>
+        <v>0.1776210167919809</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.5588777053075298</v>
+        <v>0.3316630433627284</v>
       </c>
       <c r="C10">
-        <v>1.182169283809976</v>
+        <v>0.3316630433627284</v>
       </c>
       <c r="D10">
-        <v>6.428227015842427</v>
+        <v>0.1188298149235608</v>
       </c>
       <c r="E10">
-        <v>2.535394844169725</v>
+        <v>0.344717007012362</v>
       </c>
       <c r="F10">
-        <v>2.593736879289778</v>
+        <v>0.1150832780485532</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.519969595466371</v>
+        <v>0.6206497229122814</v>
       </c>
       <c r="C11">
-        <v>0.5362226368289061</v>
+        <v>0.6206497229122814</v>
       </c>
       <c r="D11">
-        <v>0.3603679742451336</v>
+        <v>0.3852060785510916</v>
       </c>
       <c r="E11">
-        <v>0.6003065668848989</v>
-      </c>
-      <c r="F11">
-        <v>0.3354094401542539</v>
+        <v>0.6206497229122814</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
